--- a/county_by_demographic.xlsx
+++ b/county_by_demographic.xlsx
@@ -1,21 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwm/Documents/GitHub/MAPC_Rshiny/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BD25A7-6909-BD4F-8BC3-C5B7506F8B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="22920" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="31">
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>sum_population</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>mean_annual_attr_ED_rate_est</t>
+  </si>
+  <si>
+    <t>mean_annual_attr_ED_rate_lb</t>
+  </si>
+  <si>
+    <t>mean_annual_attr_ED_rate_ub</t>
+  </si>
+  <si>
+    <t>mean_annual_attr_ED_visit_est</t>
+  </si>
+  <si>
+    <t>mean_annual_attr_ED_visit_lb</t>
+  </si>
+  <si>
+    <t>mean_annual_attr_ED_visit_ub</t>
+  </si>
+  <si>
+    <t>18-39</t>
+  </si>
+  <si>
+    <t>HAMPDEN</t>
+  </si>
+  <si>
+    <t>40-64</t>
+  </si>
+  <si>
+    <t>BRISTOL</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>BERKSHIRE</t>
+  </si>
+  <si>
+    <t>SUFFOLK</t>
+  </si>
+  <si>
+    <t>PLYMOUTH</t>
+  </si>
+  <si>
+    <t>DUKES</t>
+  </si>
+  <si>
+    <t>WORCESTER</t>
+  </si>
+  <si>
+    <t>ESSEX</t>
+  </si>
+  <si>
+    <t>NORFOLK</t>
+  </si>
+  <si>
+    <t>BARNSTABLE</t>
+  </si>
+  <si>
+    <t>MIDDLESEX</t>
+  </si>
+  <si>
+    <t>HAMPSHIRE</t>
+  </si>
+  <si>
+    <t>65+</t>
+  </si>
+  <si>
+    <t>NANTUCKET</t>
+  </si>
+  <si>
+    <t>0-17</t>
+  </si>
+  <si>
+    <t>GLOBAL_CEN</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +167,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +219,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +253,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +288,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,75 +464,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>level</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AREA</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>sum_population</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>mean_annual_attr_ED_rate_est</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mean_annual_attr_ED_rate_lb</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mean_annual_attr_ED_rate_ub</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>mean_annual_attr_ED_visit_est</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>mean_annual_attr_ED_visit_lb</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>mean_annual_attr_ED_visit_ub</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>18-39</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>HAMPDEN</t>
-        </is>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
       <c r="C2">
         <v>136084</v>
@@ -427,34 +522,33 @@
         <v>300</v>
       </c>
       <c r="E2">
-        <v>462.8497029869376</v>
+        <v>462.84970298693759</v>
       </c>
       <c r="F2">
-        <v>410.0300964206082</v>
+        <v>410.03009642060817</v>
       </c>
       <c r="G2">
-        <v>512.7543314950195</v>
+        <v>512.75433149501953</v>
       </c>
       <c r="H2">
-        <v>629.8643898127442</v>
+        <v>629.86438981274421</v>
       </c>
       <c r="I2">
-        <v>557.9853564130204</v>
+        <v>557.98535641302044</v>
       </c>
       <c r="J2">
-        <v>697.7766044716824</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>40-64</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>HAMPDEN</t>
-        </is>
+        <v>697.77660447168239</v>
+      </c>
+      <c r="K2">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
       <c r="C3">
         <v>151184</v>
@@ -463,34 +557,33 @@
         <v>300</v>
       </c>
       <c r="E3">
-        <v>376.7811465551237</v>
+        <v>376.78114655512371</v>
       </c>
       <c r="F3">
         <v>339.9891274764791</v>
       </c>
       <c r="G3">
-        <v>422.5502417943347</v>
+        <v>422.55024179433468</v>
       </c>
       <c r="H3">
-        <v>569.6328086078981</v>
+        <v>569.63280860789814</v>
       </c>
       <c r="I3">
-        <v>514.0091624840402</v>
+        <v>514.00916248404019</v>
       </c>
       <c r="J3">
-        <v>638.8283575543471</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>18-39</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>BRISTOL</t>
-        </is>
+        <v>638.82835755434712</v>
+      </c>
+      <c r="K3">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
       <c r="C4">
         <v>157910</v>
@@ -502,31 +595,30 @@
         <v>373.8261898806046</v>
       </c>
       <c r="F4">
-        <v>328.5377758484223</v>
+        <v>328.53777584842231</v>
       </c>
       <c r="G4">
-        <v>417.3124729493287</v>
+        <v>417.31247294932871</v>
       </c>
       <c r="H4">
-        <v>590.3089364404627</v>
+        <v>590.30893644046273</v>
       </c>
       <c r="I4">
-        <v>518.7940018422436</v>
+        <v>518.79400184224357</v>
       </c>
       <c r="J4">
-        <v>658.978126034285</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>18-39</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>FRANKLIN</t>
-        </is>
+        <v>658.97812603428497</v>
+      </c>
+      <c r="K4">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
       </c>
       <c r="C5">
         <v>17427</v>
@@ -535,34 +627,33 @@
         <v>300</v>
       </c>
       <c r="E5">
-        <v>337.7443864306344</v>
+        <v>337.74438643063439</v>
       </c>
       <c r="F5">
-        <v>296.3064416169859</v>
+        <v>296.30644161698592</v>
       </c>
       <c r="G5">
-        <v>377.52064557212</v>
+        <v>377.52064557211997</v>
       </c>
       <c r="H5">
-        <v>58.85871422326666</v>
+        <v>58.858714223266659</v>
       </c>
       <c r="I5">
-        <v>51.63732358059213</v>
+        <v>51.637323580592131</v>
       </c>
       <c r="J5">
-        <v>65.79052290385336</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>18-39</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>BERKSHIRE</t>
-        </is>
+        <v>65.790522903853358</v>
+      </c>
+      <c r="K5">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
       <c r="C6">
         <v>31966</v>
@@ -571,13 +662,13 @@
         <v>300</v>
       </c>
       <c r="E6">
-        <v>318.2161467506571</v>
+        <v>318.21614675065712</v>
       </c>
       <c r="F6">
-        <v>276.2556860630066</v>
+        <v>276.25568606300658</v>
       </c>
       <c r="G6">
-        <v>357.8696302349038</v>
+        <v>357.86963023490381</v>
       </c>
       <c r="H6">
         <v>101.7209734703151</v>
@@ -586,19 +677,18 @@
         <v>88.30789260690068</v>
       </c>
       <c r="J6">
-        <v>114.3966060008893</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>40-64</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SUFFOLK</t>
-        </is>
+        <v>114.39660600088931</v>
+      </c>
+      <c r="K6">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
       <c r="C7">
         <v>216885</v>
@@ -607,34 +697,33 @@
         <v>300</v>
       </c>
       <c r="E7">
-        <v>312.691974897512</v>
+        <v>312.69197489751201</v>
       </c>
       <c r="F7">
-        <v>281.8313075226529</v>
+        <v>281.83130752265288</v>
       </c>
       <c r="G7">
-        <v>349.0076042289087</v>
+        <v>349.00760422890869</v>
       </c>
       <c r="H7">
-        <v>678.181989756469</v>
+        <v>678.18198975646897</v>
       </c>
       <c r="I7">
-        <v>611.2498313205058</v>
+        <v>611.24983132050579</v>
       </c>
       <c r="J7">
-        <v>756.9451424318686</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>18-39</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>PLYMOUTH</t>
-        </is>
+        <v>756.94514243186859</v>
+      </c>
+      <c r="K7">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
       <c r="C8">
         <v>131825</v>
@@ -643,34 +732,33 @@
         <v>300</v>
       </c>
       <c r="E8">
-        <v>305.5732290287507</v>
+        <v>305.57322902875069</v>
       </c>
       <c r="F8">
         <v>268.9968157995026</v>
       </c>
       <c r="G8">
-        <v>339.6197816563001</v>
+        <v>339.61978165630012</v>
       </c>
       <c r="H8">
-        <v>402.8219091671507</v>
+        <v>402.82190916715069</v>
       </c>
       <c r="I8">
-        <v>354.6050524276943</v>
+        <v>354.60505242769432</v>
       </c>
       <c r="J8">
-        <v>447.7037771684177</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>18-39</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>DUKES</t>
-        </is>
+        <v>447.70377716841767</v>
+      </c>
+      <c r="K8">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
       </c>
       <c r="C9">
         <v>3941</v>
@@ -682,31 +770,30 @@
         <v>296.4444819260633</v>
       </c>
       <c r="F9">
-        <v>255.8641926093929</v>
+        <v>255.86419260939289</v>
       </c>
       <c r="G9">
-        <v>336.1902635106049</v>
+        <v>336.19026351060489</v>
       </c>
       <c r="H9">
         <v>11.68287703270615</v>
       </c>
       <c r="I9">
-        <v>10.08360783073618</v>
+        <v>10.083607830736179</v>
       </c>
       <c r="J9">
-        <v>13.24925828495294</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>18-39</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>WORCESTER</t>
-        </is>
+        <v>13.249258284952941</v>
+      </c>
+      <c r="K9">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
       <c r="C10">
         <v>236358</v>
@@ -721,28 +808,27 @@
         <v>240.4866380362478</v>
       </c>
       <c r="G10">
-        <v>305.4738363096852</v>
+        <v>305.47383630968523</v>
       </c>
       <c r="H10">
-        <v>646.8494700305175</v>
+        <v>646.84947003051752</v>
       </c>
       <c r="I10">
-        <v>568.4094079297147</v>
+        <v>568.40940792971469</v>
       </c>
       <c r="J10">
-        <v>722.0118500248457</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>40-64</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>BRISTOL</t>
-        </is>
+        <v>722.01185002484567</v>
+      </c>
+      <c r="K10">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
       </c>
       <c r="C11">
         <v>193340</v>
@@ -751,34 +837,33 @@
         <v>300</v>
       </c>
       <c r="E11">
-        <v>272.2768035541347</v>
+        <v>272.27680355413469</v>
       </c>
       <c r="F11">
         <v>244.6532158664192</v>
       </c>
       <c r="G11">
-        <v>307.7774176024735</v>
+        <v>307.77741760247352</v>
       </c>
       <c r="H11">
-        <v>526.4199719915641</v>
+        <v>526.41997199156413</v>
       </c>
       <c r="I11">
         <v>473.0125275561349</v>
       </c>
       <c r="J11">
-        <v>595.0568591926224</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>18-39</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ESSEX</t>
-        </is>
+        <v>595.05685919262237</v>
+      </c>
+      <c r="K11">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
       </c>
       <c r="C12">
         <v>216920</v>
@@ -787,34 +872,33 @@
         <v>300</v>
       </c>
       <c r="E12">
-        <v>271.2268973378744</v>
+        <v>271.22689733787439</v>
       </c>
       <c r="F12">
         <v>238.9446476088437</v>
       </c>
       <c r="G12">
-        <v>301.2993735934567</v>
+        <v>301.29937359345672</v>
       </c>
       <c r="H12">
-        <v>588.3453857053171</v>
+        <v>588.34538570531709</v>
       </c>
       <c r="I12">
-        <v>518.3187295931039</v>
+        <v>518.31872959310385</v>
       </c>
       <c r="J12">
-        <v>653.5786011989262</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>40-64</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>BERKSHIRE</t>
-        </is>
+        <v>653.57860119892621</v>
+      </c>
+      <c r="K12">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
       </c>
       <c r="C13">
         <v>43397</v>
@@ -823,13 +907,13 @@
         <v>300</v>
       </c>
       <c r="E13">
-        <v>242.3492391923388</v>
+        <v>242.34923919233881</v>
       </c>
       <c r="F13">
-        <v>217.4962394436831</v>
+        <v>217.49623944368309</v>
       </c>
       <c r="G13">
-        <v>274.7160309909888</v>
+        <v>274.71603099098883</v>
       </c>
       <c r="H13">
         <v>105.1722993322993</v>
@@ -840,17 +924,16 @@
       <c r="J13">
         <v>119.2185159691594</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>18-39</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>NORFOLK</t>
-        </is>
+      <c r="K13">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
       </c>
       <c r="C14">
         <v>196865</v>
@@ -859,34 +942,33 @@
         <v>300</v>
       </c>
       <c r="E14">
-        <v>238.4092719512678</v>
+        <v>238.40927195126781</v>
       </c>
       <c r="F14">
-        <v>211.8167178706474</v>
+        <v>211.81671787064741</v>
       </c>
       <c r="G14">
-        <v>263.8089589826106</v>
+        <v>263.80895898261059</v>
       </c>
       <c r="H14">
-        <v>469.3444132268634</v>
+        <v>469.34441322686342</v>
       </c>
       <c r="I14">
-        <v>416.99298163605</v>
+        <v>416.99298163604999</v>
       </c>
       <c r="J14">
-        <v>519.3475071011164</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>40-64</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>FRANKLIN</t>
-        </is>
+        <v>519.34750710111643</v>
+      </c>
+      <c r="K14">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
       </c>
       <c r="C15">
         <v>25371</v>
@@ -895,34 +977,33 @@
         <v>300</v>
       </c>
       <c r="E15">
-        <v>234.6119557974021</v>
+        <v>234.61195579740209</v>
       </c>
       <c r="F15">
-        <v>210.6576593668341</v>
+        <v>210.65765936683411</v>
       </c>
       <c r="G15">
-        <v>265.7826500606561</v>
+        <v>265.78265006065612</v>
       </c>
       <c r="H15">
-        <v>59.52339930535888</v>
+        <v>59.523399305358879</v>
       </c>
       <c r="I15">
-        <v>53.44595475795948</v>
+        <v>53.445954757959477</v>
       </c>
       <c r="J15">
-        <v>67.43171614688907</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>18-39</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>BARNSTABLE</t>
-        </is>
+        <v>67.431716146889073</v>
+      </c>
+      <c r="K15">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
       </c>
       <c r="C16">
         <v>44124</v>
@@ -931,34 +1012,33 @@
         <v>300</v>
       </c>
       <c r="E16">
-        <v>223.8034252380108</v>
+        <v>223.80342523801079</v>
       </c>
       <c r="F16">
-        <v>193.1360851810053</v>
+        <v>193.13608518100531</v>
       </c>
       <c r="G16">
-        <v>253.6428810942589</v>
+        <v>253.64288109425891</v>
       </c>
       <c r="H16">
-        <v>98.7510233520199</v>
+        <v>98.751023352019899</v>
       </c>
       <c r="I16">
-        <v>85.21936622526678</v>
+        <v>85.219366225266782</v>
       </c>
       <c r="J16">
         <v>111.9173848540308</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>18-39</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>SUFFOLK</t>
-        </is>
+      <c r="K16">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
       </c>
       <c r="C17">
         <v>355447</v>
@@ -967,34 +1047,33 @@
         <v>300</v>
       </c>
       <c r="E17">
-        <v>220.1678310597812</v>
+        <v>220.16783105978121</v>
       </c>
       <c r="F17">
-        <v>196.0982880941519</v>
+        <v>196.09828809415191</v>
       </c>
       <c r="G17">
-        <v>242.8184927523073</v>
+        <v>242.81849275230729</v>
       </c>
       <c r="H17">
         <v>782.5799504670606</v>
       </c>
       <c r="I17">
-        <v>697.0254820820201</v>
+        <v>697.02548208202006</v>
       </c>
       <c r="J17">
-        <v>863.0910479332936</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>40-64</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>PLYMOUTH</t>
-        </is>
+        <v>863.09104793329357</v>
+      </c>
+      <c r="K17">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
       </c>
       <c r="C18">
         <v>181469</v>
@@ -1006,31 +1085,30 @@
         <v>219.7509366313474</v>
       </c>
       <c r="F18">
-        <v>197.4283118191236</v>
+        <v>197.42831181912359</v>
       </c>
       <c r="G18">
-        <v>247.4732287141896</v>
+        <v>247.47322871418959</v>
       </c>
       <c r="H18">
-        <v>398.7798271955398</v>
+        <v>398.77982719553978</v>
       </c>
       <c r="I18">
-        <v>358.2711831750454</v>
+        <v>358.27118317504539</v>
       </c>
       <c r="J18">
-        <v>449.0871934153527</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>18-39</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MIDDLESEX</t>
-        </is>
+        <v>449.08719341535271</v>
+      </c>
+      <c r="K18">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
       </c>
       <c r="C19">
         <v>516786</v>
@@ -1039,34 +1117,33 @@
         <v>300</v>
       </c>
       <c r="E19">
-        <v>212.5516987811191</v>
+        <v>212.55169878111909</v>
       </c>
       <c r="F19">
-        <v>189.2408125121557</v>
+        <v>189.24081251215571</v>
       </c>
       <c r="G19">
-        <v>234.4232552814825</v>
+        <v>234.42325528148251</v>
       </c>
       <c r="H19">
-        <v>1098.437422062994</v>
+        <v>1098.4374220629941</v>
       </c>
       <c r="I19">
-        <v>977.9700253490693</v>
+        <v>977.97002534906926</v>
       </c>
       <c r="J19">
-        <v>1211.466564038962</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>40-64</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ESSEX</t>
-        </is>
+        <v>1211.4665640389619</v>
+      </c>
+      <c r="K19">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
       </c>
       <c r="C20">
         <v>268048</v>
@@ -1078,31 +1155,30 @@
         <v>210.2039302697508</v>
       </c>
       <c r="F20">
-        <v>188.929721020944</v>
+        <v>188.92972102094399</v>
       </c>
       <c r="G20">
-        <v>236.5967620222696</v>
+        <v>236.59676202226959</v>
       </c>
       <c r="H20">
-        <v>563.4474310094615</v>
+        <v>563.44743100946152</v>
       </c>
       <c r="I20">
-        <v>506.42233860222</v>
+        <v>506.42233860222001</v>
       </c>
       <c r="J20">
-        <v>634.1928886654532</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>40-64</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>DUKES</t>
-        </is>
+        <v>634.19288866545321</v>
+      </c>
+      <c r="K20">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
       </c>
       <c r="C21">
         <v>6297</v>
@@ -1111,34 +1187,33 @@
         <v>300</v>
       </c>
       <c r="E21">
-        <v>210.1677835088105</v>
+        <v>210.16778350881049</v>
       </c>
       <c r="F21">
-        <v>188.1941572065907</v>
+        <v>188.19415720659069</v>
       </c>
       <c r="G21">
         <v>238.9502913567338</v>
       </c>
       <c r="H21">
-        <v>13.2342653275498</v>
+        <v>13.234265327549799</v>
       </c>
       <c r="I21">
-        <v>11.85058607929902</v>
+        <v>11.850586079299021</v>
       </c>
       <c r="J21">
         <v>15.04669984673353</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>40-64</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>WORCESTER</t>
-        </is>
+      <c r="K21">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
       </c>
       <c r="C22">
         <v>286275</v>
@@ -1147,34 +1222,33 @@
         <v>300</v>
       </c>
       <c r="E22">
-        <v>209.9981065933546</v>
+        <v>209.99810659335461</v>
       </c>
       <c r="F22">
         <v>188.610941500194</v>
       </c>
       <c r="G22">
-        <v>237.3483935991553</v>
+        <v>237.34839359915529</v>
       </c>
       <c r="H22">
-        <v>601.1720796501259</v>
+        <v>601.17207965012585</v>
       </c>
       <c r="I22">
-        <v>539.9459727796805</v>
+        <v>539.94597277968046</v>
       </c>
       <c r="J22">
         <v>679.4691137759819</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>40-64</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MIDDLESEX</t>
-        </is>
+      <c r="K22">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
       </c>
       <c r="C23">
         <v>525639</v>
@@ -1183,34 +1257,33 @@
         <v>300</v>
       </c>
       <c r="E23">
-        <v>204.6376374397973</v>
+        <v>204.63763743979729</v>
       </c>
       <c r="F23">
-        <v>184.4221516407279</v>
+        <v>184.42215164072789</v>
       </c>
       <c r="G23">
-        <v>228.4562644827248</v>
+        <v>228.45626448272481</v>
       </c>
       <c r="H23">
         <v>1075.655231062176</v>
       </c>
       <c r="I23">
-        <v>969.3947536628057</v>
+        <v>969.39475366280567</v>
       </c>
       <c r="J23">
-        <v>1200.85522406435</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>40-64</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>HAMPSHIRE</t>
-        </is>
+        <v>1200.8552240643501</v>
+      </c>
+      <c r="K23">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
       </c>
       <c r="C24">
         <v>47558</v>
@@ -1222,31 +1295,30 @@
         <v>203.4249455126</v>
       </c>
       <c r="F24">
-        <v>182.6447799706121</v>
+        <v>182.64477997061209</v>
       </c>
       <c r="G24">
         <v>229.307989651925</v>
       </c>
       <c r="H24">
-        <v>96.74483558688229</v>
+        <v>96.744835586882289</v>
       </c>
       <c r="I24">
         <v>86.86220445842369</v>
       </c>
       <c r="J24">
-        <v>109.0542937186625</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>40-64</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>NORFOLK</t>
-        </is>
+        <v>109.05429371866251</v>
+      </c>
+      <c r="K24">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
       </c>
       <c r="C25">
         <v>241004</v>
@@ -1255,34 +1327,33 @@
         <v>300</v>
       </c>
       <c r="E25">
-        <v>198.4510064028378</v>
+        <v>198.45100640283781</v>
       </c>
       <c r="F25">
-        <v>179.424412864443</v>
+        <v>179.42441286444301</v>
       </c>
       <c r="G25">
-        <v>222.2570629944078</v>
+        <v>222.25706299440779</v>
       </c>
       <c r="H25">
-        <v>478.2748634710953</v>
+        <v>478.27486347109527</v>
       </c>
       <c r="I25">
-        <v>432.4200119798223</v>
+        <v>432.42001197982228</v>
       </c>
       <c r="J25">
         <v>535.6484120990425</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>40-64</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>BARNSTABLE</t>
-        </is>
+      <c r="K25">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
       </c>
       <c r="C26">
         <v>72214</v>
@@ -1294,10 +1365,10 @@
         <v>173.1504761501786</v>
       </c>
       <c r="F26">
-        <v>155.1876607602214</v>
+        <v>155.18766076022141</v>
       </c>
       <c r="G26">
-        <v>196.5790208382232</v>
+        <v>196.57902083822319</v>
       </c>
       <c r="H26">
         <v>125.0388848470899</v>
@@ -1308,17 +1379,16 @@
       <c r="J26">
         <v>141.9575741081145</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>65+</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>HAMPDEN</t>
-        </is>
+      <c r="K26">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
       </c>
       <c r="C27">
         <v>78933</v>
@@ -1333,28 +1403,27 @@
         <v>109.0413086348324</v>
       </c>
       <c r="G27">
-        <v>193.2794392334137</v>
+        <v>193.27943923341371</v>
       </c>
       <c r="H27">
         <v>120.4934027129318</v>
       </c>
       <c r="I27">
-        <v>86.06957614473228</v>
+        <v>86.069576144732281</v>
       </c>
       <c r="J27">
-        <v>152.5612597701104</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>18-39</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>HAMPSHIRE</t>
-        </is>
+        <v>152.56125977011041</v>
+      </c>
+      <c r="K27">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
       </c>
       <c r="C28">
         <v>62505</v>
@@ -1369,28 +1438,27 @@
         <v>125.4980246125063</v>
       </c>
       <c r="G28">
-        <v>158.6909675704914</v>
+        <v>158.69096757049141</v>
       </c>
       <c r="H28">
         <v>89.21340546316587</v>
       </c>
       <c r="I28">
-        <v>78.44254028404706</v>
+        <v>78.442540284047055</v>
       </c>
       <c r="J28">
-        <v>99.18978927993567</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>65+</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>DUKES</t>
-        </is>
+        <v>99.189789279935667</v>
+      </c>
+      <c r="K28">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
       </c>
       <c r="C29">
         <v>4266</v>
@@ -1408,25 +1476,24 @@
         <v>176.6440469549687</v>
       </c>
       <c r="H29">
-        <v>5.815306884582229</v>
+        <v>5.8153068845822293</v>
       </c>
       <c r="I29">
-        <v>4.343036388465885</v>
+        <v>4.3430363884658849</v>
       </c>
       <c r="J29">
-        <v>7.535635043098964</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>40-64</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>NANTUCKET</t>
-        </is>
+        <v>7.5356350430989636</v>
+      </c>
+      <c r="K29">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
       </c>
       <c r="C30">
         <v>3977</v>
@@ -1435,34 +1502,33 @@
         <v>300</v>
       </c>
       <c r="E30">
-        <v>130.8693439183537</v>
+        <v>130.86934391835371</v>
       </c>
       <c r="F30">
         <v>117.3335552923802</v>
       </c>
       <c r="G30">
-        <v>148.7322610287823</v>
+        <v>148.73226102878229</v>
       </c>
       <c r="H30">
-        <v>5.204673807632927</v>
+        <v>5.2046738076329273</v>
       </c>
       <c r="I30">
-        <v>4.666355493977959</v>
+        <v>4.6663554939779592</v>
       </c>
       <c r="J30">
-        <v>5.915082021114672</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>65+</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>SUFFOLK</t>
-        </is>
+        <v>5.9150820211146717</v>
+      </c>
+      <c r="K30">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
       </c>
       <c r="C31">
         <v>96191</v>
@@ -1471,34 +1537,33 @@
         <v>300</v>
       </c>
       <c r="E31">
-        <v>130.1479783216967</v>
+        <v>130.14797832169671</v>
       </c>
       <c r="F31">
-        <v>93.4036844783225</v>
+        <v>93.403684478322504</v>
       </c>
       <c r="G31">
-        <v>165.9702244472261</v>
+        <v>165.97022444722609</v>
       </c>
       <c r="H31">
-        <v>125.1906418274233</v>
+        <v>125.19064182742331</v>
       </c>
       <c r="I31">
-        <v>89.8459381365432</v>
+        <v>89.845938136543197</v>
       </c>
       <c r="J31">
-        <v>159.6484185980312</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>18-39</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>NANTUCKET</t>
-        </is>
+        <v>159.64841859803121</v>
+      </c>
+      <c r="K31">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
       </c>
       <c r="C32">
         <v>3651</v>
@@ -1516,25 +1581,24 @@
         <v>147.1123299001853</v>
       </c>
       <c r="H32">
-        <v>4.723245980312383</v>
+        <v>4.7232459803123827</v>
       </c>
       <c r="I32">
-        <v>4.044863897187525</v>
+        <v>4.0448638971875246</v>
       </c>
       <c r="J32">
-        <v>5.371071164655767</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>65+</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>BERKSHIRE</t>
-        </is>
+        <v>5.3710711646557669</v>
+      </c>
+      <c r="K32">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
       </c>
       <c r="C33">
         <v>29275</v>
@@ -1546,31 +1610,30 @@
         <v>125.8319317209763</v>
       </c>
       <c r="F33">
-        <v>92.35776585547138</v>
+        <v>92.357765855471385</v>
       </c>
       <c r="G33">
         <v>161.1490590957531</v>
       </c>
       <c r="H33">
-        <v>36.83729801131582</v>
+        <v>36.837298011315823</v>
       </c>
       <c r="I33">
-        <v>27.03773595418924</v>
+        <v>27.037735954189241</v>
       </c>
       <c r="J33">
-        <v>47.17638705028172</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>65+</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>BRISTOL</t>
-        </is>
+        <v>47.176387050281718</v>
+      </c>
+      <c r="K33">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
       </c>
       <c r="C34">
         <v>95498</v>
@@ -1582,31 +1645,30 @@
         <v>125.2851028117867</v>
       </c>
       <c r="F34">
-        <v>90.74993988601631</v>
+        <v>90.749939886016307</v>
       </c>
       <c r="G34">
-        <v>159.8688050110676</v>
+        <v>159.86880501106759</v>
       </c>
       <c r="H34">
         <v>119.6447674832</v>
       </c>
       <c r="I34">
-        <v>86.66437759234785</v>
+        <v>86.664377592347847</v>
       </c>
       <c r="J34">
-        <v>152.6715114094694</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>65+</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>NORFOLK</t>
-        </is>
+        <v>152.67151140946939</v>
+      </c>
+      <c r="K34">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
       </c>
       <c r="C35">
         <v>118569</v>
@@ -1624,25 +1686,24 @@
         <v>157.0178710544333</v>
       </c>
       <c r="H35">
-        <v>147.0302988610684</v>
+        <v>147.03029886106839</v>
       </c>
       <c r="I35">
         <v>105.2323046217135</v>
       </c>
       <c r="J35">
-        <v>186.1745195305309</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>65+</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>MIDDLESEX</t>
-        </is>
+        <v>186.17451953053089</v>
+      </c>
+      <c r="K35">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
       </c>
       <c r="C36">
         <v>245533</v>
@@ -1654,31 +1715,30 @@
         <v>120.8652878298553</v>
       </c>
       <c r="F36">
-        <v>86.63544945166092</v>
+        <v>86.635449451660918</v>
       </c>
       <c r="G36">
         <v>154.187110828177</v>
       </c>
       <c r="H36">
-        <v>296.7641671672786</v>
+        <v>296.76416716727857</v>
       </c>
       <c r="I36">
-        <v>212.7186181021466</v>
+        <v>212.71861810214659</v>
       </c>
       <c r="J36">
-        <v>378.5802388297477</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>65+</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>FRANKLIN</t>
-        </is>
+        <v>378.58023882974771</v>
+      </c>
+      <c r="K36">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
       </c>
       <c r="C37">
         <v>15501</v>
@@ -1690,7 +1750,7 @@
         <v>118.3903132229691</v>
       </c>
       <c r="F37">
-        <v>85.80215061916854</v>
+        <v>85.802150619168543</v>
       </c>
       <c r="G37">
         <v>151.2280153620913</v>
@@ -1704,17 +1764,16 @@
       <c r="J37">
         <v>23.44185466127777</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>65+</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>HAMPSHIRE</t>
-        </is>
+      <c r="K37">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
       </c>
       <c r="C38">
         <v>27859</v>
@@ -1726,31 +1785,30 @@
         <v>117.7375699226902</v>
       </c>
       <c r="F38">
-        <v>84.80664409862993</v>
+        <v>84.806644098629931</v>
       </c>
       <c r="G38">
         <v>149.890445828271</v>
       </c>
       <c r="H38">
-        <v>32.80050960476226</v>
+        <v>32.800509604762262</v>
       </c>
       <c r="I38">
         <v>23.62628297943731</v>
       </c>
       <c r="J38">
-        <v>41.75797930329803</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>65+</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ESSEX</t>
-        </is>
+        <v>41.757979303298029</v>
+      </c>
+      <c r="K38">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
       </c>
       <c r="C39">
         <v>134580</v>
@@ -1759,34 +1817,33 @@
         <v>300</v>
       </c>
       <c r="E39">
-        <v>111.1894424358427</v>
+        <v>111.18944243584269</v>
       </c>
       <c r="F39">
-        <v>80.29231506959347</v>
+        <v>80.292315069593471</v>
       </c>
       <c r="G39">
-        <v>141.545875861082</v>
+        <v>141.54587586108201</v>
       </c>
       <c r="H39">
-        <v>149.6387516301571</v>
+        <v>149.63875163015709</v>
       </c>
       <c r="I39">
         <v>108.0573976206589</v>
       </c>
       <c r="J39">
-        <v>190.4924397338442</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>65+</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>WORCESTER</t>
-        </is>
+        <v>190.49243973384421</v>
+      </c>
+      <c r="K39">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
       </c>
       <c r="C40">
         <v>129519</v>
@@ -1795,13 +1852,13 @@
         <v>300</v>
       </c>
       <c r="E40">
-        <v>108.4639058308315</v>
+        <v>108.46390583083149</v>
       </c>
       <c r="F40">
-        <v>78.36638357433563</v>
+        <v>78.366383574335629</v>
       </c>
       <c r="G40">
-        <v>138.4836256869926</v>
+        <v>138.48362568699261</v>
       </c>
       <c r="H40">
         <v>140.4813661930346</v>
@@ -1810,19 +1867,18 @@
         <v>101.4993563416438</v>
       </c>
       <c r="J40">
-        <v>179.3626071535359</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>65+</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>PLYMOUTH</t>
-        </is>
+        <v>179.36260715353589</v>
+      </c>
+      <c r="K40">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
       </c>
       <c r="C41">
         <v>93971</v>
@@ -1831,34 +1887,33 @@
         <v>300</v>
       </c>
       <c r="E41">
-        <v>105.6091887086176</v>
+        <v>105.60918870861759</v>
       </c>
       <c r="F41">
-        <v>76.26074946131895</v>
+        <v>76.260749461318952</v>
       </c>
       <c r="G41">
-        <v>134.4904704254868</v>
+        <v>134.49047042548679</v>
       </c>
       <c r="H41">
-        <v>99.242010721375</v>
+        <v>99.242010721374996</v>
       </c>
       <c r="I41">
-        <v>71.66298887629603</v>
+        <v>71.662988876296026</v>
       </c>
       <c r="J41">
         <v>126.3820399635342</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>65+</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>BARNSTABLE</t>
-        </is>
+      <c r="K41">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
       </c>
       <c r="C42">
         <v>65068</v>
@@ -1867,34 +1922,33 @@
         <v>300</v>
       </c>
       <c r="E42">
-        <v>90.27127521088899</v>
+        <v>90.271275210888987</v>
       </c>
       <c r="F42">
-        <v>67.01325856604274</v>
+        <v>67.013258566042737</v>
       </c>
       <c r="G42">
-        <v>116.3339096992462</v>
+        <v>116.33390969924621</v>
       </c>
       <c r="H42">
-        <v>58.73771335422124</v>
+        <v>58.737713354221242</v>
       </c>
       <c r="I42">
-        <v>43.60418708375269</v>
+        <v>43.604187083752691</v>
       </c>
       <c r="J42">
-        <v>75.69614836310551</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>65+</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>NANTUCKET</t>
-        </is>
+        <v>75.696148363105507</v>
+      </c>
+      <c r="K42">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
       </c>
       <c r="C43">
         <v>1803</v>
@@ -1903,7 +1957,7 @@
         <v>300</v>
       </c>
       <c r="E43">
-        <v>85.9639070586538</v>
+        <v>85.963907058653803</v>
       </c>
       <c r="F43">
         <v>64.74225204993148</v>
@@ -1912,25 +1966,24 @@
         <v>110.8220325649922</v>
       </c>
       <c r="H43">
-        <v>1.549929244267528</v>
+        <v>1.5499292442675281</v>
       </c>
       <c r="I43">
         <v>1.167302804460264</v>
       </c>
       <c r="J43">
-        <v>1.99812124714681</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>0-17</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>BARNSTABLE</t>
-        </is>
+        <v>1.9981212471468099</v>
+      </c>
+      <c r="K43">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
       </c>
       <c r="C44">
         <v>32099</v>
@@ -1942,31 +1995,30 @@
         <v>-115.6031751438955</v>
       </c>
       <c r="F44">
-        <v>-142.8102982167034</v>
+        <v>-142.81029821670339</v>
       </c>
       <c r="G44">
-        <v>-92.70394890882672</v>
+        <v>-92.703948908826717</v>
       </c>
       <c r="H44">
-        <v>-37.10746318943902</v>
+        <v>-37.107463189439017</v>
       </c>
       <c r="I44">
-        <v>-45.84067762457963</v>
+        <v>-45.840677624579627</v>
       </c>
       <c r="J44">
-        <v>-29.75704056024428</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>0-17</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>NORFOLK</t>
-        </is>
+        <v>-29.757040560244281</v>
+      </c>
+      <c r="K44">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
       </c>
       <c r="C45">
         <v>147302</v>
@@ -1975,7 +2027,7 @@
         <v>300</v>
       </c>
       <c r="E45">
-        <v>-135.0990174383681</v>
+        <v>-135.09901743836809</v>
       </c>
       <c r="F45">
         <v>-169.6975655816027</v>
@@ -1984,25 +2036,24 @@
         <v>-106.7521137647887</v>
       </c>
       <c r="H45">
-        <v>-199.0035546670649</v>
+        <v>-199.00355466706489</v>
       </c>
       <c r="I45">
-        <v>-249.9679080530125</v>
+        <v>-249.96790805301251</v>
       </c>
       <c r="J45">
-        <v>-157.2479986178091</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>0-17</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>HAMPSHIRE</t>
-        </is>
+        <v>-157.24799861780909</v>
+      </c>
+      <c r="K45">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
       </c>
       <c r="C46">
         <v>23439</v>
@@ -2020,25 +2071,24 @@
         <v>-109.5740858557224</v>
       </c>
       <c r="H46">
-        <v>-32.37374720660218</v>
+        <v>-32.373747206602182</v>
       </c>
       <c r="I46">
-        <v>-40.20533695114452</v>
+        <v>-40.205336951144517</v>
       </c>
       <c r="J46">
         <v>-25.68306998372276</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>0-17</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>MIDDLESEX</t>
-        </is>
+      <c r="K46">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
       </c>
       <c r="C47">
         <v>317941</v>
@@ -2056,25 +2106,24 @@
         <v>-110.0548131908522</v>
       </c>
       <c r="H47">
-        <v>-448.9072239871244</v>
+        <v>-448.90722398712438</v>
       </c>
       <c r="I47">
         <v>-568.9041864865726</v>
       </c>
       <c r="J47">
-        <v>-349.9093736071272</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>0-17</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>PLYMOUTH</t>
-        </is>
+        <v>-349.90937360712718</v>
+      </c>
+      <c r="K47">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
       </c>
       <c r="C48">
         <v>111332</v>
@@ -2083,34 +2132,33 @@
         <v>300</v>
       </c>
       <c r="E48">
-        <v>-152.2882673792263</v>
+        <v>-152.28826737922631</v>
       </c>
       <c r="F48">
-        <v>-189.5753692479635</v>
+        <v>-189.57536924796349</v>
       </c>
       <c r="G48">
-        <v>-120.7749249292985</v>
+        <v>-120.77492492929851</v>
       </c>
       <c r="H48">
-        <v>-169.5455738386403</v>
+        <v>-169.54557383864031</v>
       </c>
       <c r="I48">
-        <v>-211.0580500911427</v>
+        <v>-211.05805009114269</v>
       </c>
       <c r="J48">
-        <v>-134.4611394222866</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>0-17</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>NANTUCKET</t>
-        </is>
+        <v>-134.46113942228661</v>
+      </c>
+      <c r="K48">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
       </c>
       <c r="C49">
         <v>1781</v>
@@ -2119,34 +2167,33 @@
         <v>300</v>
       </c>
       <c r="E49">
-        <v>-158.8744256521367</v>
+        <v>-158.87442565213669</v>
       </c>
       <c r="F49">
-        <v>-196.1599223283931</v>
+        <v>-196.15992232839309</v>
       </c>
       <c r="G49">
         <v>-127.9019957482387</v>
       </c>
       <c r="H49">
-        <v>-2.829553520864555</v>
+        <v>-2.8295535208645548</v>
       </c>
       <c r="I49">
-        <v>-3.493608216668681</v>
+        <v>-3.4936082166686808</v>
       </c>
       <c r="J49">
         <v>-2.277934544276131</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>0-17</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>WORCESTER</t>
-        </is>
+      <c r="K49">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
       </c>
       <c r="C50">
         <v>174503</v>
@@ -2155,34 +2202,33 @@
         <v>300</v>
       </c>
       <c r="E50">
-        <v>-162.5007566106487</v>
+        <v>-162.50075661064869</v>
       </c>
       <c r="F50">
-        <v>-201.3755322981515</v>
+        <v>-201.37553229815151</v>
       </c>
       <c r="G50">
         <v>-128.794344481612</v>
       </c>
       <c r="H50">
-        <v>-283.5686953082803</v>
+        <v>-283.56869530828033</v>
       </c>
       <c r="I50">
-        <v>-351.4063451262434</v>
+        <v>-351.40634512624342</v>
       </c>
       <c r="J50">
-        <v>-224.7499949507474</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>0-17</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ESSEX</t>
-        </is>
+        <v>-224.74999495074741</v>
+      </c>
+      <c r="K50">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
       </c>
       <c r="C51">
         <v>167490</v>
@@ -2191,34 +2237,33 @@
         <v>300</v>
       </c>
       <c r="E51">
-        <v>-166.4610985666351</v>
+        <v>-166.46109856663509</v>
       </c>
       <c r="F51">
-        <v>-207.3675206318155</v>
+        <v>-207.36752063181549</v>
       </c>
       <c r="G51">
-        <v>-131.9299408943513</v>
+        <v>-131.92994089435129</v>
       </c>
       <c r="H51">
-        <v>-278.8056939892572</v>
+        <v>-278.80569398925718</v>
       </c>
       <c r="I51">
-        <v>-347.3198603062277</v>
+        <v>-347.31986030622772</v>
       </c>
       <c r="J51">
-        <v>-220.9694580039491</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>0-17</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>BERKSHIRE</t>
-        </is>
+        <v>-220.96945800394909</v>
+      </c>
+      <c r="K51">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
       </c>
       <c r="C52">
         <v>21289</v>
@@ -2230,31 +2275,30 @@
         <v>-184.0853484163849</v>
       </c>
       <c r="F52">
-        <v>-227.4647207606818</v>
+        <v>-227.46472076068179</v>
       </c>
       <c r="G52">
         <v>-147.6657181006203</v>
       </c>
       <c r="H52">
-        <v>-39.18992982436417</v>
+        <v>-39.189929824364171</v>
       </c>
       <c r="I52">
-        <v>-48.42496440274155</v>
+        <v>-48.424964402741551</v>
       </c>
       <c r="J52">
-        <v>-31.43655472644106</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>0-17</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>FRANKLIN</t>
-        </is>
+        <v>-31.436554726441059</v>
+      </c>
+      <c r="K52">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
       </c>
       <c r="C53">
         <v>12230</v>
@@ -2263,13 +2307,13 @@
         <v>300</v>
       </c>
       <c r="E53">
-        <v>-187.4422389200907</v>
+        <v>-187.44223892009069</v>
       </c>
       <c r="F53">
-        <v>-231.8770671058801</v>
+        <v>-231.87706710588009</v>
       </c>
       <c r="G53">
-        <v>-148.4063334661704</v>
+        <v>-148.40633346617039</v>
       </c>
       <c r="H53">
         <v>-22.9241858199271</v>
@@ -2280,17 +2324,16 @@
       <c r="J53">
         <v>-18.15009458291264</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>0-17</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>SUFFOLK</t>
-        </is>
+      <c r="K53">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
       </c>
       <c r="C54">
         <v>132639</v>
@@ -2299,34 +2342,33 @@
         <v>300</v>
       </c>
       <c r="E54">
-        <v>-189.2665365755703</v>
+        <v>-189.26653657557031</v>
       </c>
       <c r="F54">
         <v>-239.934157124623</v>
       </c>
       <c r="G54">
-        <v>-147.445940206678</v>
+        <v>-147.44594020667799</v>
       </c>
       <c r="H54">
-        <v>-251.0412414484707</v>
+        <v>-251.04124144847071</v>
       </c>
       <c r="I54">
-        <v>-318.2462666685287</v>
+        <v>-318.24626666852868</v>
       </c>
       <c r="J54">
-        <v>-195.5708206307357</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>0-17</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>DUKES</t>
-        </is>
+        <v>-195.57082063073571</v>
+      </c>
+      <c r="K54">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
       </c>
       <c r="C55">
         <v>2926</v>
@@ -2338,31 +2380,30 @@
         <v>-192.8293146108671</v>
       </c>
       <c r="F55">
-        <v>-237.4397711532718</v>
+        <v>-237.43977115327181</v>
       </c>
       <c r="G55">
         <v>-154.5138009804634</v>
       </c>
       <c r="H55">
-        <v>-5.64218574551397</v>
+        <v>-5.6421857455139701</v>
       </c>
       <c r="I55">
-        <v>-6.947487703944734</v>
+        <v>-6.9474877039447342</v>
       </c>
       <c r="J55">
-        <v>-4.521073816688359</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>0-17</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>BRISTOL</t>
-        </is>
+        <v>-4.5210738166883591</v>
+      </c>
+      <c r="K55">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
       </c>
       <c r="C56">
         <v>116553</v>
@@ -2371,34 +2412,33 @@
         <v>300</v>
       </c>
       <c r="E56">
-        <v>-195.6997345576997</v>
+        <v>-195.69973455769971</v>
       </c>
       <c r="F56">
         <v>-242.498625225871</v>
       </c>
       <c r="G56">
-        <v>-154.9411964946092</v>
+        <v>-154.94119649460919</v>
       </c>
       <c r="H56">
-        <v>-228.0939116190358</v>
+        <v>-228.09391161903579</v>
       </c>
       <c r="I56">
-        <v>-282.6394226595094</v>
+        <v>-282.63942265950942</v>
       </c>
       <c r="J56">
         <v>-180.5886127503619</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>0-17</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>HAMPDEN</t>
-        </is>
+      <c r="K56">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
       </c>
       <c r="C57">
         <v>100446</v>
@@ -2410,19 +2450,1002 @@
         <v>-244.8470155842692</v>
       </c>
       <c r="F57">
-        <v>-306.7436967766213</v>
+        <v>-306.74369677662128</v>
       </c>
       <c r="G57">
-        <v>-194.200071969256</v>
+        <v>-194.20007196925599</v>
       </c>
       <c r="H57">
-        <v>-245.939033273775</v>
+        <v>-245.93903327377501</v>
       </c>
       <c r="I57">
-        <v>-308.111773664245</v>
+        <v>-308.11177366424499</v>
       </c>
       <c r="J57">
-        <v>-195.0662042902389</v>
+        <v>-195.06620429023889</v>
+      </c>
+      <c r="K57">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>225413</v>
+      </c>
+      <c r="D58">
+        <v>300</v>
+      </c>
+      <c r="E58">
+        <v>234.84474279179409</v>
+      </c>
+      <c r="F58">
+        <v>204.34022665523489</v>
+      </c>
+      <c r="G58">
+        <v>269.63200404996758</v>
+      </c>
+      <c r="H58">
+        <v>529.37058006926691</v>
+      </c>
+      <c r="I58">
+        <v>460.60943511036459</v>
+      </c>
+      <c r="J58">
+        <v>607.78558928915345</v>
+      </c>
+      <c r="K58">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>241234</v>
+      </c>
+      <c r="D59">
+        <v>300</v>
+      </c>
+      <c r="E59">
+        <v>219.87290929725671</v>
+      </c>
+      <c r="F59">
+        <v>187.07886914434081</v>
+      </c>
+      <c r="G59">
+        <v>259.34229628525787</v>
+      </c>
+      <c r="H59">
+        <v>530.40821401414405</v>
+      </c>
+      <c r="I59">
+        <v>451.29783919165908</v>
+      </c>
+      <c r="J59">
+        <v>625.62179502077913</v>
+      </c>
+      <c r="K59">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>272662</v>
+      </c>
+      <c r="D60">
+        <v>300</v>
+      </c>
+      <c r="E60">
+        <v>179.69792154338751</v>
+      </c>
+      <c r="F60">
+        <v>154.89377742865321</v>
+      </c>
+      <c r="G60">
+        <v>207.2262107145269</v>
+      </c>
+      <c r="H60">
+        <v>489.96794683863118</v>
+      </c>
+      <c r="I60">
+        <v>422.33647141251441</v>
+      </c>
+      <c r="J60">
+        <v>565.02713065844341</v>
+      </c>
+      <c r="K60">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>386556</v>
+      </c>
+      <c r="D61">
+        <v>300</v>
+      </c>
+      <c r="E61">
+        <v>170.91329328743689</v>
+      </c>
+      <c r="F61">
+        <v>150.26513870073089</v>
+      </c>
+      <c r="G61">
+        <v>195.26245049762929</v>
+      </c>
+      <c r="H61">
+        <v>660.67559000018446</v>
+      </c>
+      <c r="I61">
+        <v>580.85890955599734</v>
+      </c>
+      <c r="J61">
+        <v>754.79871814561602</v>
+      </c>
+      <c r="K61">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62">
+        <v>290639</v>
+      </c>
+      <c r="D62">
+        <v>300</v>
+      </c>
+      <c r="E62">
+        <v>164.11208439457781</v>
+      </c>
+      <c r="F62">
+        <v>137.37348424948689</v>
+      </c>
+      <c r="G62">
+        <v>195.63267405792959</v>
+      </c>
+      <c r="H62">
+        <v>476.97372096355701</v>
+      </c>
+      <c r="I62">
+        <v>399.26092088786629</v>
+      </c>
+      <c r="J62">
+        <v>568.58484755522613</v>
+      </c>
+      <c r="K62">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63">
+        <v>34337</v>
+      </c>
+      <c r="D63">
+        <v>300</v>
+      </c>
+      <c r="E63">
+        <v>158.8270292711743</v>
+      </c>
+      <c r="F63">
+        <v>136.6552568036455</v>
+      </c>
+      <c r="G63">
+        <v>183.50402600786151</v>
+      </c>
+      <c r="H63">
+        <v>54.536437040843111</v>
+      </c>
+      <c r="I63">
+        <v>46.923315528667757</v>
+      </c>
+      <c r="J63">
+        <v>63.009777410319408</v>
+      </c>
+      <c r="K63">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64">
+        <v>61013</v>
+      </c>
+      <c r="D64">
+        <v>300</v>
+      </c>
+      <c r="E64">
+        <v>157.30652992050281</v>
+      </c>
+      <c r="F64">
+        <v>133.25086648986141</v>
+      </c>
+      <c r="G64">
+        <v>184.5768888045919</v>
+      </c>
+      <c r="H64">
+        <v>95.977433100396382</v>
+      </c>
+      <c r="I64">
+        <v>81.300351171459141</v>
+      </c>
+      <c r="J64">
+        <v>112.6158971663457</v>
+      </c>
+      <c r="K64">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65">
+        <v>8492</v>
+      </c>
+      <c r="D65">
+        <v>300</v>
+      </c>
+      <c r="E65">
+        <v>156.95175953433539</v>
+      </c>
+      <c r="F65">
+        <v>131.03406702565931</v>
+      </c>
+      <c r="G65">
+        <v>184.33875382594451</v>
+      </c>
+      <c r="H65">
+        <v>13.328343419655759</v>
+      </c>
+      <c r="I65">
+        <v>11.12741297181898</v>
+      </c>
+      <c r="J65">
+        <v>15.654046974899209</v>
+      </c>
+      <c r="K65">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66">
+        <v>251961</v>
+      </c>
+      <c r="D66">
+        <v>300</v>
+      </c>
+      <c r="E66">
+        <v>149.145915974872</v>
+      </c>
+      <c r="F66">
+        <v>128.7535699358761</v>
+      </c>
+      <c r="G66">
+        <v>171.39135545112359</v>
+      </c>
+      <c r="H66">
+        <v>375.78954134944718</v>
+      </c>
+      <c r="I66">
+        <v>324.40878234613268</v>
+      </c>
+      <c r="J66">
+        <v>431.83937310820562</v>
+      </c>
+      <c r="K66">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67">
+        <v>414606</v>
+      </c>
+      <c r="D67">
+        <v>300</v>
+      </c>
+      <c r="E67">
+        <v>144.93184575122501</v>
+      </c>
+      <c r="F67">
+        <v>124.72349826159061</v>
+      </c>
+      <c r="G67">
+        <v>169.95137350346141</v>
+      </c>
+      <c r="H67">
+        <v>600.89612839532379</v>
+      </c>
+      <c r="I67">
+        <v>517.11110720245028</v>
+      </c>
+      <c r="J67">
+        <v>704.62859162776124</v>
+      </c>
+      <c r="K67">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68">
+        <v>379251</v>
+      </c>
+      <c r="D68">
+        <v>300</v>
+      </c>
+      <c r="E68">
+        <v>143.76945914497159</v>
+      </c>
+      <c r="F68">
+        <v>124.23707915038101</v>
+      </c>
+      <c r="G68">
+        <v>165.1943230910986</v>
+      </c>
+      <c r="H68">
+        <v>545.24711150189603</v>
+      </c>
+      <c r="I68">
+        <v>471.17036504861147</v>
+      </c>
+      <c r="J68">
+        <v>626.50112226622241</v>
+      </c>
+      <c r="K68">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69">
+        <v>36192</v>
+      </c>
+      <c r="D69">
+        <v>300</v>
+      </c>
+      <c r="E69">
+        <v>143.311520838744</v>
+      </c>
+      <c r="F69">
+        <v>119.0757396511634</v>
+      </c>
+      <c r="G69">
+        <v>170.92078507280951</v>
+      </c>
+      <c r="H69">
+        <v>51.867305621958216</v>
+      </c>
+      <c r="I69">
+        <v>43.095891694549053</v>
+      </c>
+      <c r="J69">
+        <v>61.859650533551232</v>
+      </c>
+      <c r="K69">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70">
+        <v>407436</v>
+      </c>
+      <c r="D70">
+        <v>300</v>
+      </c>
+      <c r="E70">
+        <v>142.27794605253189</v>
+      </c>
+      <c r="F70">
+        <v>122.5262329201866</v>
+      </c>
+      <c r="G70">
+        <v>164.1420325616354</v>
+      </c>
+      <c r="H70">
+        <v>579.69157227859375</v>
+      </c>
+      <c r="I70">
+        <v>499.21598236069173</v>
+      </c>
+      <c r="J70">
+        <v>668.773731787825</v>
+      </c>
+      <c r="K70">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>338772</v>
+      </c>
+      <c r="D71">
+        <v>300</v>
+      </c>
+      <c r="E71">
+        <v>137.56907159104679</v>
+      </c>
+      <c r="F71">
+        <v>120.1893878260648</v>
+      </c>
+      <c r="G71">
+        <v>157.77943943867791</v>
+      </c>
+      <c r="H71">
+        <v>466.045495210421</v>
+      </c>
+      <c r="I71">
+        <v>407.1679929261162</v>
+      </c>
+      <c r="J71">
+        <v>534.51256257519776</v>
+      </c>
+      <c r="K71">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72">
+        <v>64914</v>
+      </c>
+      <c r="D72">
+        <v>300</v>
+      </c>
+      <c r="E72">
+        <v>137.40089463886551</v>
+      </c>
+      <c r="F72">
+        <v>112.03903944825851</v>
+      </c>
+      <c r="G72">
+        <v>165.72812978994989</v>
+      </c>
+      <c r="H72">
+        <v>89.192416745873174</v>
+      </c>
+      <c r="I72">
+        <v>72.729022067442543</v>
+      </c>
+      <c r="J72">
+        <v>107.5807581718481</v>
+      </c>
+      <c r="K72">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73">
+        <v>786561</v>
+      </c>
+      <c r="D73">
+        <v>300</v>
+      </c>
+      <c r="E73">
+        <v>135.03789081823811</v>
+      </c>
+      <c r="F73">
+        <v>118.67671364179471</v>
+      </c>
+      <c r="G73">
+        <v>154.3463253556568</v>
+      </c>
+      <c r="H73">
+        <v>1062.155384398842</v>
+      </c>
+      <c r="I73">
+        <v>933.46474558803686</v>
+      </c>
+      <c r="J73">
+        <v>1214.028000180708</v>
+      </c>
+      <c r="K73">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74">
+        <v>266636</v>
+      </c>
+      <c r="D74">
+        <v>300</v>
+      </c>
+      <c r="E74">
+        <v>129.49901317772489</v>
+      </c>
+      <c r="F74">
+        <v>109.1393674982275</v>
+      </c>
+      <c r="G74">
+        <v>153.71470476508469</v>
+      </c>
+      <c r="H74">
+        <v>345.29098877655849</v>
+      </c>
+      <c r="I74">
+        <v>291.00484392257391</v>
+      </c>
+      <c r="J74">
+        <v>409.85874019743108</v>
+      </c>
+      <c r="K74">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>407787</v>
+      </c>
+      <c r="D75">
+        <v>300</v>
+      </c>
+      <c r="E75">
+        <v>129.32951798223601</v>
+      </c>
+      <c r="F75">
+        <v>109.1848173142089</v>
+      </c>
+      <c r="G75">
+        <v>153.43933073021171</v>
+      </c>
+      <c r="H75">
+        <v>527.38896149422089</v>
+      </c>
+      <c r="I75">
+        <v>445.24149098109308</v>
+      </c>
+      <c r="J75">
+        <v>625.7056436048083</v>
+      </c>
+      <c r="K75">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76">
+        <v>419219</v>
+      </c>
+      <c r="D76">
+        <v>300</v>
+      </c>
+      <c r="E76">
+        <v>126.342385725692</v>
+      </c>
+      <c r="F76">
+        <v>105.8510258898739</v>
+      </c>
+      <c r="G76">
+        <v>150.708444264338</v>
+      </c>
+      <c r="H76">
+        <v>529.65128601538868</v>
+      </c>
+      <c r="I76">
+        <v>443.74761222527047</v>
+      </c>
+      <c r="J76">
+        <v>631.79843296051513</v>
+      </c>
+      <c r="K76">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77">
+        <v>819338</v>
+      </c>
+      <c r="D77">
+        <v>300</v>
+      </c>
+      <c r="E77">
+        <v>122.5099091936834</v>
+      </c>
+      <c r="F77">
+        <v>105.3762488996073</v>
+      </c>
+      <c r="G77">
+        <v>143.69858308326229</v>
+      </c>
+      <c r="H77">
+        <v>1003.770239789342</v>
+      </c>
+      <c r="I77">
+        <v>863.3876502090643</v>
+      </c>
+      <c r="J77">
+        <v>1177.3770966627401</v>
+      </c>
+      <c r="K77">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78">
+        <v>364968</v>
+      </c>
+      <c r="D78">
+        <v>300</v>
+      </c>
+      <c r="E78">
+        <v>121.39136536250901</v>
+      </c>
+      <c r="F78">
+        <v>103.580991117607</v>
+      </c>
+      <c r="G78">
+        <v>142.8987025973241</v>
+      </c>
+      <c r="H78">
+        <v>443.03963833624181</v>
+      </c>
+      <c r="I78">
+        <v>378.03747166210792</v>
+      </c>
+      <c r="J78">
+        <v>521.53453689540163</v>
+      </c>
+      <c r="K78">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79">
+        <v>8938</v>
+      </c>
+      <c r="D79">
+        <v>300</v>
+      </c>
+      <c r="E79">
+        <v>118.89849986144949</v>
+      </c>
+      <c r="F79">
+        <v>95.605241952305065</v>
+      </c>
+      <c r="G79">
+        <v>144.9989593173807</v>
+      </c>
+      <c r="H79">
+        <v>10.627147917616361</v>
+      </c>
+      <c r="I79">
+        <v>8.5451965256970261</v>
+      </c>
+      <c r="J79">
+        <v>12.96000698378749</v>
+      </c>
+      <c r="K79">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80">
+        <v>75283</v>
+      </c>
+      <c r="D80">
+        <v>300</v>
+      </c>
+      <c r="E80">
+        <v>115.4518436494343</v>
+      </c>
+      <c r="F80">
+        <v>99.519623444874895</v>
+      </c>
+      <c r="G80">
+        <v>132.92610556099481</v>
+      </c>
+      <c r="H80">
+        <v>86.915611454603635</v>
+      </c>
+      <c r="I80">
+        <v>74.921358118005159</v>
+      </c>
+      <c r="J80">
+        <v>100.0707600494837</v>
+      </c>
+      <c r="K80">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81">
+        <v>102181</v>
+      </c>
+      <c r="D81">
+        <v>300</v>
+      </c>
+      <c r="E81">
+        <v>108.2448585252189</v>
+      </c>
+      <c r="F81">
+        <v>90.883996917837294</v>
+      </c>
+      <c r="G81">
+        <v>127.2098880962473</v>
+      </c>
+      <c r="H81">
+        <v>110.6056788896539</v>
+      </c>
+      <c r="I81">
+        <v>92.866176890615321</v>
+      </c>
+      <c r="J81">
+        <v>129.9843357556264</v>
+      </c>
+      <c r="K81">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82">
+        <v>86078</v>
+      </c>
+      <c r="D82">
+        <v>300</v>
+      </c>
+      <c r="E82">
+        <v>98.671430591754941</v>
+      </c>
+      <c r="F82">
+        <v>83.018122354439058</v>
+      </c>
+      <c r="G82">
+        <v>117.28844790301839</v>
+      </c>
+      <c r="H82">
+        <v>84.934394024770825</v>
+      </c>
+      <c r="I82">
+        <v>71.460339360254054</v>
+      </c>
+      <c r="J82">
+        <v>100.9595501859602</v>
+      </c>
+      <c r="K82">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83">
+        <v>111324</v>
+      </c>
+      <c r="D83">
+        <v>300</v>
+      </c>
+      <c r="E83">
+        <v>91.956534996952314</v>
+      </c>
+      <c r="F83">
+        <v>74.484747663430383</v>
+      </c>
+      <c r="G83">
+        <v>111.7767213282709</v>
+      </c>
+      <c r="H83">
+        <v>102.3696930200072</v>
+      </c>
+      <c r="I83">
+        <v>82.91940048883724</v>
+      </c>
+      <c r="J83">
+        <v>124.4343172514842</v>
+      </c>
+      <c r="K83">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84">
+        <v>6074</v>
+      </c>
+      <c r="D84">
+        <v>300</v>
+      </c>
+      <c r="E84">
+        <v>86.172793009107025</v>
+      </c>
+      <c r="F84">
+        <v>71.561798015770336</v>
+      </c>
+      <c r="G84">
+        <v>100.9995301220963</v>
+      </c>
+      <c r="H84">
+        <v>5.2341354473731609</v>
+      </c>
+      <c r="I84">
+        <v>4.3466636114778892</v>
+      </c>
+      <c r="J84">
+        <v>6.1347114596161312</v>
+      </c>
+      <c r="K84">
+        <v>23.8889</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85">
+        <v>5138</v>
+      </c>
+      <c r="D85">
+        <v>300</v>
+      </c>
+      <c r="E85">
+        <v>77.682583964824744</v>
+      </c>
+      <c r="F85">
+        <v>62.885832786891058</v>
+      </c>
+      <c r="G85">
+        <v>95.297728456414262</v>
+      </c>
+      <c r="H85">
+        <v>3.9913311641126961</v>
+      </c>
+      <c r="I85">
+        <v>3.231074088590463</v>
+      </c>
+      <c r="J85">
+        <v>4.8963972880905633</v>
+      </c>
+      <c r="K85">
+        <v>23.8889</v>
       </c>
     </row>
   </sheetData>
